--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3644023.964275003</v>
+        <v>3641771.884563797</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7630903.030217161</v>
+        <v>7630903.03021716</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.2538703177672</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617352</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773038</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>5.647680961031769</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>55.45354938846194</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>133.9708793396602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.6721656321511</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.051689109229</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.80286948657613</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697872</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>49.90056347018522</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881281</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>28.87857325623941</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>122.8327676896534</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>186.9166231085223</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.6209519256077</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>121.8070385036053</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>48.153315917783</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,10 +3038,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>3.453391420150774</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>59.96838802184492</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.22475183604956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>71.39698738222812</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1178.820931986406</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>809.8584150459947</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4370,10 +4370,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3230.070636123231</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="C4" t="n">
-        <v>3230.070636123231</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="D4" t="n">
-        <v>3079.953996710896</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>2932.040903128503</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>2785.150955630592</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>2617.448119005311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>3235.775364366698</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>3230.070636123231</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>3230.070636123231</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997116</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736036</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.298959725103</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>507.5323442946291</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>507.5323442946291</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>507.5323442946291</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>507.5323442946291</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>191.947818960828</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>180.9157728462285</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.2489900899278</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.2489900899278</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.1323506775921</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201675</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.1256051221279</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>817.189422194221</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>667.0727827818853</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>519.1596891994922</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>372.2697417015818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>205.0736424164617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.5373202159259</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>821.601137288019</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900017</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>443.4949469776659</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>443.4949469776659</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>443.4949469776659</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,13 +6546,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>746.1673476194629</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,7 +6774,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,7 +6962,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7072,34 +7072,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828444</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579752</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>545.3854261579752</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656161</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253735</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.067041434951</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>923.067041434951</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2124.944376414609</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.78270532855896</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>30.48882721876595</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.90318636666115</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>100.4621571004294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>85.45266000108631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773125</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773125</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="G4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189203</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189204</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.583971892</v>
@@ -26457,7 +26457,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219695</v>
+        <v>-750285.7490219694</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056229</v>
+        <v>578458.996705623</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056233</v>
       </c>
       <c r="E6" t="n">
-        <v>324207.6941023515</v>
+        <v>324172.9561769157</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.155909707</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.1559097071</v>
+        <v>649585.4179842715</v>
       </c>
       <c r="H6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="J6" t="n">
-        <v>432088.953512429</v>
+        <v>432054.2155869936</v>
       </c>
       <c r="K6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="L6" t="n">
-        <v>649620.1559097071</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="M6" t="n">
-        <v>564565.1279741951</v>
+        <v>564530.3900487594</v>
       </c>
       <c r="N6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="O6" t="n">
-        <v>649620.1559097065</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.1559097067</v>
+        <v>649585.4179842711</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26790,7 +26790,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.4799713457134</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167338</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.55745814032035</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>220.0619744280054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>309.8193423825456</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>252.2670593163934</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09685969929074645</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096383918</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>293.9309721769044</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>96.53339917638395</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127099</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28567,16 +28567,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29758,10 +29758,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954396</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>263.7590256391499</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>191.3323016788565</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>691.6611968462892</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>431.3680753731359</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256108</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>755.4040473746019</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121063</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36437,22 +36437,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>132.4173135558165</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>59.99058959552318</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>560.3194847629559</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3936679588056</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112805</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>624.0623352912686</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
